--- a/WebJar-app/templateReport.xlsx
+++ b/WebJar-app/templateReport.xlsx
@@ -15,7 +15,8 @@
   <sheets>
     <sheet name="County" r:id="rId1" sheetId="2"/>
     <sheet name="Template" r:id="rId2" sheetId="1"/>
-    <sheet name="User Detail" r:id="rId7" sheetId="3"/>
+    <sheet name="CashBal" r:id="rId7" sheetId="3"/>
+    <sheet name="SmartTableRCVX" r:id="rId8" sheetId="4"/>
   </sheets>
   <definedNames>
     <definedName name="rgBASEUSD">Template!$B$11:$D$12</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>ORIGUSD</t>
   </si>
@@ -65,15 +66,6 @@
   </si>
   <si>
     <t>Sales</t>
-  </si>
-  <si>
-    <t>Projections Original</t>
-  </si>
-  <si>
-    <t>Projections Base</t>
-  </si>
-  <si>
-    <t>Sales Report</t>
   </si>
   <si>
     <t>James</t>
@@ -99,7 +91,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,14 +107,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="9"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,26 +151,6 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="12"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="54"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="54"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -360,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -394,8 +360,6 @@
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -910,184 +874,143 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:F21"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="30"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="33">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="33">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s" s="33">
-        <v>3</v>
+      <c r="A3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.0</v>
-      </c>
       <c r="C4" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B8" t="n">
         <v>1.0</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="n">
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="n">
         <v>10.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n" s="34">
-        <v>10.0</v>
-      </c>
-      <c r="B7" t="n" s="34">
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
         <v>1.0</v>
       </c>
-      <c r="C7" t="n" s="34">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="33">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s" s="33">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n" s="34">
-        <v>10.0</v>
-      </c>
-      <c r="B14" t="n" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="C14" t="n" s="34">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="33">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s" s="33">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s" s="33">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s" s="33">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s" s="33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1200.0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
+      <c r="B5" t="n">
         <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="B21" t="n" s="34">
-        <v>3200.0</v>
-      </c>
-      <c r="C21" t="n" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="D21" t="n" s="34">
-        <v>0.0</v>
-      </c>
-      <c r="E21" t="n" s="34">
-        <v>12.0</v>
       </c>
     </row>
   </sheetData>
